--- a/bh3/496033168950805017_2021-02-26_17-02-02.xlsx
+++ b/bh3/496033168950805017_2021-02-26_17-02-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4189156607</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-02 20:01:36</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44257.83444444444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4189156607</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:52:35</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44257.74484953703</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -669,10 +681,8 @@
           <t>4209513069</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:30:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44257.72979166666</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -740,10 +750,8 @@
           <t>4189650472</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-01 12:55:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44256.53887731482</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -803,10 +811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:31:18</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44256.43840277778</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
@@ -878,10 +884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-01 09:56:13</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44256.41403935185</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -957,10 +961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-28 16:38:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44255.69346064814</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1025,10 +1027,8 @@
           <t>4199506398</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-28 12:57:21</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44255.53982638889</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1104,10 +1104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-28 09:25:03</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44255.39239583333</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1167,10 +1165,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-28 00:07:29</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44255.00519675926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1246,10 +1242,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-27 22:02:28</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44254.91837962963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1321,10 +1315,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-27 21:43:18</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44254.90506944444</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1400,10 +1392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-27 19:56:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44254.83104166666</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1463,10 +1453,8 @@
           <t>4195981395</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-27 19:52:52</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44254.82837962963</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1538,10 +1526,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-27 19:50:23</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44254.82665509259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1613,10 +1599,8 @@
           <t>4189028267</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-27 18:51:40</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44254.78587962963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1684,10 +1668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-27 17:44:21</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44254.73913194444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1763,10 +1745,8 @@
           <t>4194672163</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-27 16:02:26</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44254.66835648148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1835,10 +1815,8 @@
           <t>4189171486</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-27 14:12:34</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44254.59206018518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1898,10 +1876,8 @@
           <t>4194180841</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-27 14:11:33</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44254.59135416667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1961,10 +1937,8 @@
           <t>4194018708</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-27 13:38:51</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44254.56864583334</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2040,10 +2014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-27 13:32:01</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44254.56390046296</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2111,10 +2083,8 @@
           <t>4193804436</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:59:14</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44254.54113425926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2186,10 +2156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-27 11:56:46</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44254.49775462963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2253,10 +2221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-27 11:37:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44254.48469907408</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2324,10 +2290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:38:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44254.44373842593</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2404,10 +2368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:12:54</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44254.425625</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2479,10 +2441,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:29:26</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44254.39543981481</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2554,10 +2514,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:24:25</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44254.39195601852</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2629,10 +2587,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:21:42</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44254.39006944445</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2704,10 +2660,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:19:26</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44254.38849537037</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2779,10 +2733,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:09:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44254.38140046296</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2854,10 +2806,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:06:18</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44254.379375</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2921,10 +2871,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:04:25</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44254.37806712963</v>
       </c>
       <c r="I35" t="n">
         <v>6</v>
@@ -2996,10 +2944,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-27 08:26:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44254.35194444445</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3067,10 +3013,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-27 07:53:57</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44254.32913194445</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3138,10 +3082,8 @@
           <t>4192387199</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-27 06:06:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44254.25416666667</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3209,10 +3151,8 @@
           <t>4192148975</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-27 02:18:51</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44254.09642361111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3288,10 +3228,8 @@
           <t>4192072609</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-27 01:47:31</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44254.07466435185</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3363,10 +3301,8 @@
           <t>4191845740</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:44:47</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44254.03109953704</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3442,10 +3378,8 @@
           <t>4191760895</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:28:45</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44254.01996527778</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3515,10 +3449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:22:22</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44254.01553240741</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3590,10 +3522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:14:33</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44254.01010416666</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3661,10 +3591,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:07:54</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44254.00548611111</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
@@ -3728,10 +3656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:49:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44253.99289351852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3803,10 +3729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:36:05</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44253.98339120371</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3866,10 +3790,8 @@
           <t>4189072144</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:29:44</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44253.97898148148</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3937,10 +3859,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:29:02</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44253.97849537037</v>
       </c>
       <c r="I49" t="n">
         <v>5</v>
@@ -4008,10 +3928,8 @@
           <t>4189822207</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:25:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44253.9759375</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4087,10 +4005,8 @@
           <t>4189072144</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:00:35</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44253.95873842593</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4162,10 +4078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:54:10</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44253.95428240741</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4233,10 +4147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:47:49</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44253.94987268518</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4304,10 +4216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:26:55</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44253.9353587963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4383,10 +4293,8 @@
           <t>4190881432</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:08:21</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44253.92246527778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4462,10 +4370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:41:52</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44253.90407407407</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4541,10 +4447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:21:36</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44253.89</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4620,10 +4524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:21:14</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44253.88974537037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4691,10 +4593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:36:00</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44253.85833333333</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4762,10 +4662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:30:26</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44253.8544675926</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4829,10 +4727,8 @@
           <t>4190182550</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:20:44</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44253.84773148148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4904,10 +4800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:14:04</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44253.84310185185</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4978,10 +4872,8 @@
           <t>4189072144</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:02:13</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44253.83487268518</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5049,10 +4941,8 @@
           <t>4190054270</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:00:46</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44253.83386574074</v>
       </c>
       <c r="I64" t="n">
         <v>4</v>
@@ -5128,10 +5018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:56:43</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44253.83105324074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5199,10 +5087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:51:48</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44253.82763888889</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5278,10 +5164,8 @@
           <t>4189650472</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:39:31</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44253.8191087963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5345,10 +5229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:36:23</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44253.81693287037</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5416,10 +5298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:32:36</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44253.81430555556</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5495,10 +5375,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:31:08</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44253.81328703704</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -5565,10 +5443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:27:09</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44253.81052083334</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5640,10 +5516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:25:45</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44253.80954861111</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5707,10 +5581,8 @@
           <t>4189822207</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:23:47</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44253.80818287037</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5787,10 +5659,8 @@
           <t>4189816613</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:22:37</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44253.80737268519</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5867,10 +5737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:21:27</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44253.8065625</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5938,10 +5806,8 @@
           <t>4189156607</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:17:13</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44253.80362268518</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6018,10 +5884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:15:18</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44253.80229166667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6093,10 +5957,8 @@
           <t>4189760714</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:14:15</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44253.8015625</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -6160,10 +6022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:13:26</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44253.80099537037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6227,10 +6087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:12:27</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44253.8003125</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6290,10 +6148,8 @@
           <t>4189028267</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:08:04</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44253.79726851852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6361,10 +6217,8 @@
           <t>4189652402</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:59:02</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44253.79099537037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6440,10 +6294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:58:25</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44253.79056712963</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6507,10 +6359,8 @@
           <t>4189650472</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:58:09</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44253.79038194445</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6574,10 +6424,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:50:51</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44253.7853125</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6649,10 +6497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:50:38</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44253.78516203703</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6724,10 +6570,8 @@
           <t>4189571480</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:46:41</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44253.78241898148</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6795,10 +6639,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:46:29</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44253.78228009259</v>
       </c>
       <c r="I88" t="n">
         <v>7</v>
@@ -6874,10 +6716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:46:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44253.78210648148</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6937,10 +6777,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:45:00</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44253.78125</v>
       </c>
       <c r="I90" t="n">
         <v>9</v>
@@ -7012,10 +6850,8 @@
           <t>4189553798</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:44:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44253.78096064815</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7083,10 +6919,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:43:21</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44253.78010416667</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7162,10 +6996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:42:24</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44253.77944444444</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7233,10 +7065,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:42:23</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44253.77943287037</v>
       </c>
       <c r="I94" t="n">
         <v>13</v>
@@ -7308,10 +7138,8 @@
           <t>4189028267</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:41:19</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44253.77869212963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7375,10 +7203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:39:51</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44253.77767361111</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7450,10 +7276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:39:21</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44253.77732638889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7525,10 +7349,8 @@
           <t>4189487593</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:34:54</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44253.77423611111</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7600,10 +7422,8 @@
           <t>4189440274</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:26:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44253.76859953703</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7667,10 +7487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:26:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44253.76841435185</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7746,10 +7564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:26:08</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44253.76814814815</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7813,10 +7629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:25:40</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44253.76782407407</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7880,10 +7694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:23:29</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44253.76630787037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7951,10 +7763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:21:19</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44253.76480324074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8030,10 +7840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:21:13</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44253.7647337963</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8105,10 +7913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:20:58</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44253.76456018518</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8184,10 +7990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:20:31</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44253.76424768518</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8259,10 +8063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:19:57</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44253.76385416667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8332,10 +8134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:19:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44253.76347222222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8411,10 +8211,8 @@
           <t>4189268014</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:19:00</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44253.76319444444</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8482,10 +8280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:18:54</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44253.763125</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8561,10 +8357,8 @@
           <t>4189028267</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:18:26</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44253.76280092593</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8636,10 +8430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:16:12</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44253.76125</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8703,10 +8495,8 @@
           <t>4189156607</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:15:24</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44253.76069444444</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8770,10 +8560,8 @@
           <t>4189357857</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:14:06</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44253.75979166666</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8845,10 +8633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:13:42</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44253.75951388889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8924,10 +8710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:09:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44253.75674768518</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8991,10 +8775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:09:07</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44253.75633101852</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9063,10 +8845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:08:26</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44253.75585648148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9138,10 +8918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:05:59</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44253.7541550926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9217,10 +8995,8 @@
           <t>4189289688</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:04:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44253.75329861111</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9288,10 +9064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:04:33</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44253.75315972222</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9363,10 +9137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:03:55</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44253.75271990741</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9434,10 +9206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:02:56</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44253.75203703704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9501,10 +9271,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:02:20</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44253.75162037037</v>
       </c>
       <c r="I125" t="n">
         <v>4</v>
@@ -9568,10 +9336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:02:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44253.75146990741</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9643,10 +9409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:01:37</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44253.75112268519</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9718,10 +9482,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:01:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44253.75081018519</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9799,10 +9561,8 @@
           <t>4189268014</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:00:41</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44253.75047453704</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9878,10 +9638,8 @@
           <t>4189263890</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:00:13</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44253.75015046296</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -9949,10 +9707,8 @@
           <t>4189259718</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:00:10</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44253.75011574074</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10031,10 +9787,8 @@
           <t>4189259330</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:59:58</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44253.74997685185</v>
       </c>
       <c r="I132" t="n">
         <v>25</v>
@@ -10110,10 +9864,8 @@
           <t>4189156607</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:59:58</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44253.74997685185</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10189,10 +9941,8 @@
           <t>4189258600</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:59:36</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44253.74972222222</v>
       </c>
       <c r="I134" t="n">
         <v>5</v>
@@ -10268,10 +10018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:58:04</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44253.74865740741</v>
       </c>
       <c r="I135" t="n">
         <v>5</v>
@@ -10347,10 +10095,8 @@
           <t>4189241624</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:56:03</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44253.74725694444</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10426,10 +10172,8 @@
           <t>4189238374</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:56:00</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44253.74722222222</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -10505,10 +10249,8 @@
           <t>4189072144</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:55:55</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44253.74716435185</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10580,10 +10322,8 @@
           <t>4189240206</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:55:20</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44253.74675925926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10662,10 +10402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:55:19</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44253.74674768518</v>
       </c>
       <c r="I140" t="n">
         <v>46</v>
@@ -10741,10 +10479,8 @@
           <t>4189233368</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:55:03</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44253.7465625</v>
       </c>
       <c r="I141" t="n">
         <v>7</v>
@@ -10820,10 +10556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:54:24</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44253.74611111111</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10895,10 +10629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:54:16</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44253.74601851852</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -10966,10 +10698,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:52:59</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44253.74512731482</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11033,10 +10763,8 @@
           <t>4189216236</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:51:29</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44253.74408564815</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11112,10 +10840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:49:12</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44253.7425</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11191,10 +10917,8 @@
           <t>4189185484</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:46:02</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44253.74030092593</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11262,10 +10986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:45:26</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44253.73988425926</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11333,10 +11055,8 @@
           <t>4188973687</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:44:10</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44253.73900462963</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11410,10 +11130,8 @@
           <t>4189171486</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:44:00</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44253.73888888889</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -11477,10 +11195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:43:15</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44253.73836805556</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11548,10 +11264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:43:13</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44253.7383449074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11615,10 +11329,8 @@
           <t>4189163055</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:43:06</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44253.73826388889</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11686,10 +11398,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:42:28</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44253.73782407407</v>
       </c>
       <c r="I154" t="n">
         <v>15</v>
@@ -11757,10 +11467,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:42:08</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44253.7375925926</v>
       </c>
       <c r="I155" t="n">
         <v>13</v>
@@ -11836,10 +11544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:41:56</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44253.7374537037</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11911,10 +11617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:41:44</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44253.73731481482</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11986,10 +11690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:41:41</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44253.7372800926</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12053,10 +11755,8 @@
           <t>4189156607</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:41:31</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44253.73716435185</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12133,10 +11833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:40:39</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44253.7365625</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12208,10 +11906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:39:49</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44253.73598379629</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12275,10 +11971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:39:11</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44253.73554398148</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12342,10 +12036,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:39:11</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44253.73554398148</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12417,10 +12109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:38:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44253.73488425926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12488,10 +12178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:38:06</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44253.73479166667</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12567,10 +12255,8 @@
           <t>4189129766</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:38:06</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44253.73479166667</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12638,10 +12324,8 @@
           <t>4189129706</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:38:04</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44253.73476851852</v>
       </c>
       <c r="I167" t="n">
         <v>4</v>
@@ -12713,10 +12397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:37:56</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44253.73467592592</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12784,10 +12466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:35:18</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44253.73284722222</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12863,10 +12543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:34:48</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44253.7325</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12938,10 +12616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:34:42</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44253.73243055555</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13010,10 +12686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:34:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44253.73225694444</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13077,10 +12751,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:33:37</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44253.73167824074</v>
       </c>
       <c r="I173" t="n">
         <v>5</v>
@@ -13157,10 +12829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:31:04</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44253.72990740741</v>
       </c>
       <c r="I174" t="n">
         <v>5</v>
@@ -13224,10 +12894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:30:16</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44253.72935185185</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13299,10 +12967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:29:27</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44253.72878472223</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13378,10 +13044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:28:24</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44253.72805555556</v>
       </c>
       <c r="I177" t="n">
         <v>36</v>
@@ -13457,10 +13121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:28:22</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44253.72803240741</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13536,10 +13198,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:28:20</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44253.72800925926</v>
       </c>
       <c r="I179" t="n">
         <v>92</v>
@@ -13615,10 +13275,8 @@
           <t>4188943257</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:27:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44253.72774305556</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13690,10 +13348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:27:52</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44253.72768518519</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13769,10 +13425,8 @@
           <t>4189077568</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:27:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44253.72733796296</v>
       </c>
       <c r="I182" t="n">
         <v>5</v>
@@ -13840,10 +13494,8 @@
           <t>4189072517</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:27:18</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44253.72729166667</v>
       </c>
       <c r="I183" t="n">
         <v>6</v>
@@ -13915,10 +13567,8 @@
           <t>4189072144</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:27:05</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44253.7271412037</v>
       </c>
       <c r="I184" t="n">
         <v>42</v>
@@ -13990,10 +13640,8 @@
           <t>4189059129</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:25:26</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44253.72599537037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14061,10 +13709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:25:20</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44253.72592592592</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14136,10 +13782,8 @@
           <t>4189065249</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:25:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44253.72583333333</v>
       </c>
       <c r="I187" t="n">
         <v>10</v>
@@ -14215,10 +13859,8 @@
           <t>4189054630</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:24:52</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44253.72560185185</v>
       </c>
       <c r="I188" t="n">
         <v>13</v>
@@ -14284,10 +13926,8 @@
           <t>4189053630</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:24:20</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44253.72523148148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14359,10 +13999,8 @@
           <t>4189061774</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:24:10</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44253.72511574074</v>
       </c>
       <c r="I190" t="n">
         <v>16</v>
@@ -14438,10 +14076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:23:27</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44253.72461805555</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14517,10 +14153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:23:01</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44253.72431712963</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14584,10 +14218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:22:31</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44253.72396990741</v>
       </c>
       <c r="I193" t="n">
         <v>208</v>
@@ -14651,10 +14283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:22:07</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44253.72369212963</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14730,10 +14360,8 @@
           <t>4189042512</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:21:46</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44253.72344907407</v>
       </c>
       <c r="I195" t="n">
         <v>114</v>
@@ -14797,10 +14425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:21:45</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44253.7234375</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14873,10 +14499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:21:23</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44253.72318287037</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14944,10 +14568,8 @@
           <t>4189046112</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:21:11</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44253.72304398148</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15007,10 +14629,8 @@
           <t>4189045550</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:20:54</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44253.72284722222</v>
       </c>
       <c r="I199" t="n">
         <v>10</v>
@@ -15078,10 +14698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:19:57</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44253.7221875</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15145,10 +14763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:19:55</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44253.72216435185</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15224,10 +14840,8 @@
           <t>4189029156</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:19:54</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44253.72215277778</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15299,10 +14913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:19:29</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44253.72186342593</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15371,10 +14983,8 @@
           <t>4189028267</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:19:25</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44253.72181712963</v>
       </c>
       <c r="I204" t="n">
         <v>49</v>
@@ -15434,10 +15044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:18:57</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44253.72149305556</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -15509,10 +15117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:18:52</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44253.72143518519</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15588,10 +15194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:18:06</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44253.72090277778</v>
       </c>
       <c r="I207" t="n">
         <v>1459</v>
@@ -15663,10 +15267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:16:52</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44253.72004629629</v>
       </c>
       <c r="I208" t="n">
         <v>8</v>
@@ -15738,10 +15340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:16:09</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44253.71954861111</v>
       </c>
       <c r="I209" t="n">
         <v>14</v>
@@ -15801,10 +15401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:15:44</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44253.71925925926</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15880,10 +15478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:15:17</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44253.71894675926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15959,10 +15555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:15:03</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44253.71878472222</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16034,10 +15628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:14:11</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44253.71818287037</v>
       </c>
       <c r="I213" t="n">
         <v>42</v>
@@ -16101,10 +15693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:13:03</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44253.71739583334</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16172,10 +15762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:12:56</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44253.71731481481</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16247,10 +15835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:12:54</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44253.71729166667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16322,10 +15908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:12:50</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44253.71724537037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16394,10 +15978,8 @@
           <t>4188995336</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:12:05</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44253.71672453704</v>
       </c>
       <c r="I218" t="n">
         <v>8</v>
@@ -16473,10 +16055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:11:49</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44253.71653935185</v>
       </c>
       <c r="I219" t="n">
         <v>14</v>
@@ -16548,10 +16128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:10:51</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44253.71586805556</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16615,10 +16193,8 @@
           <t>4188987243</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:10:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44253.71581018518</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16695,10 +16271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:10:45</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44253.71579861111</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16775,10 +16349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:10:40</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44253.71574074074</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16842,10 +16414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:10:01</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44253.71528935185</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16913,10 +16483,8 @@
           <t>4188981325</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:09:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44253.71515046297</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16988,10 +16556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:09:44</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44253.7150925926</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17063,10 +16629,8 @@
           <t>4188952787</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:09:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44253.71502314815</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17142,10 +16706,8 @@
           <t>4188975499</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:09:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44253.71483796297</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17221,10 +16783,8 @@
           <t>4188973687</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:47</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44253.71443287037</v>
       </c>
       <c r="I229" t="n">
         <v>6</v>
@@ -17292,10 +16852,8 @@
           <t>4188969004</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:35</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44253.71429398148</v>
       </c>
       <c r="I230" t="n">
         <v>24</v>
@@ -17364,10 +16922,8 @@
           <t>4188952787</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:31</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44253.71424768519</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17435,10 +16991,8 @@
           <t>4188952787</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:14</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44253.71405092593</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17514,10 +17068,8 @@
           <t>4188963383</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:10</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44253.71400462963</v>
       </c>
       <c r="I233" t="n">
         <v>11</v>
@@ -17581,10 +17133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:06</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44253.71395833333</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17652,10 +17202,8 @@
           <t>4188962683</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:47</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44253.71373842593</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17727,10 +17275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:39</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44253.71364583333</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17806,10 +17352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:36</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44253.71361111111</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17873,10 +17417,8 @@
           <t>4188952787</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:29</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44253.71353009259</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -17944,10 +17486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:27</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44253.71350694444</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -18015,10 +17555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:25</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44253.71348379629</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18082,10 +17620,8 @@
           <t>4188961980</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:22</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44253.71344907407</v>
       </c>
       <c r="I241" t="n">
         <v>5</v>
@@ -18161,10 +17697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:07:03</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44253.71322916666</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18224,10 +17758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:53</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44253.71311342593</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18296,10 +17828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:52</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44253.71310185185</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18363,10 +17893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:41</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44253.71297453704</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18443,10 +17971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:39</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44253.71295138889</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18510,10 +18036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:39</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44253.71295138889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18581,10 +18105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:33</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44253.71288194445</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18660,10 +18182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:32</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44253.71287037037</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18735,10 +18255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:21</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44253.71274305556</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18810,10 +18328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:21</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44253.71274305556</v>
       </c>
       <c r="I251" t="n">
         <v>7</v>
@@ -18889,10 +18405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:06:16</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44253.71268518519</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18968,10 +18482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:56</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44253.7124537037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19043,10 +18555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:49</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44253.71237268519</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19118,10 +18628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:46</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44253.71233796296</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19193,10 +18701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:42</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44253.71229166666</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19260,10 +18766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:40</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44253.71226851852</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19327,10 +18831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:35</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44253.71221064815</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19398,10 +18900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:32</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44253.71217592592</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19465,10 +18965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:30</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44253.71215277778</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19544,10 +19042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:23</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44253.71207175926</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19619,10 +19115,8 @@
           <t>4188952787</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:19</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44253.71202546296</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19698,10 +19192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:07</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44253.71188657408</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19777,10 +19269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:03</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44253.71184027778</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19848,10 +19338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:50</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44253.71168981482</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19923,10 +19411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:50</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44253.71168981482</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19998,10 +19484,8 @@
           <t>4188947371</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:47</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44253.71165509259</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20078,10 +19562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:45</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44253.71163194445</v>
       </c>
       <c r="I268" t="n">
         <v>483</v>
@@ -20150,10 +19632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:37</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44253.71153935185</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20229,10 +19709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:36</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44253.71152777778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20308,10 +19786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:34</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44253.71150462963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20383,10 +19859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:30</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44253.71145833333</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20454,10 +19928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:26</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44253.71141203704</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20521,10 +19993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:26</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44253.71141203704</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20588,10 +20058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:24</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44253.71138888889</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20667,10 +20135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:21</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44253.71135416667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20746,10 +20212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:17</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44253.71130787037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20817,10 +20281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:11</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44253.71123842592</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20897,10 +20359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:03</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44253.71114583333</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20976,10 +20436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:02</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44253.71113425926</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21047,10 +20505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44253.71111111111</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21122,10 +20578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:04:00</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44253.71111111111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21189,10 +20643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:50</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44253.71099537037</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21264,10 +20716,8 @@
           <t>4188945530</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:46</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44253.71094907408</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21343,10 +20793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:40</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44253.71087962963</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21418,10 +20866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:38</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44253.71085648148</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21493,10 +20939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:30</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44253.71076388889</v>
       </c>
       <c r="I287" t="n">
         <v>11</v>
@@ -21569,10 +21013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:29</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44253.71075231482</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -21644,10 +21086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:25</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44253.71070601852</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21711,10 +21151,8 @@
           <t>4188939181</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:24</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44253.71069444445</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21791,10 +21229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:15</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44253.71059027778</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21862,10 +21298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:14</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44253.71057870371</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21937,10 +21371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:14</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44253.71057870371</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -22016,10 +21448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:06</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44253.71048611111</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -22083,10 +21513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:04</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44253.71046296296</v>
       </c>
       <c r="I295" t="n">
         <v>4</v>
@@ -22164,10 +21592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:04</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44253.71046296296</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22246,10 +21672,8 @@
           <t>4188943257</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:03:01</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44253.71042824074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22317,10 +21741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:57</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44253.71038194445</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22392,10 +21814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:54</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44253.71034722222</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22455,10 +21875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:50</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44253.71030092592</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22534,10 +21952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:49</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44253.71028935185</v>
       </c>
       <c r="I301" t="n">
         <v>105</v>
@@ -22601,10 +22017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:48</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44253.71027777778</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22668,10 +22082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:46</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44253.71025462963</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22748,10 +22160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44253.71020833333</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22827,10 +22237,8 @@
           <t>4188937732</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:37</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44253.71015046296</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22894,10 +22302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:35</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44253.71012731481</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22969,10 +22375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:33</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44253.71010416667</v>
       </c>
       <c r="I307" t="n">
         <v>356</v>
@@ -23048,10 +22452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44253.71009259259</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23115,10 +22517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:31</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44253.71008101852</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23194,10 +22594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:30</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44253.71006944445</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23269,10 +22667,8 @@
           <t>4188933264</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:29</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44253.71005787037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23336,10 +22732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:27</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44253.71003472222</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -23407,10 +22801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:27</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44253.71003472222</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23478,10 +22870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:25</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44253.71001157408</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23557,10 +22947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:21</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44253.70996527778</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
